--- a/Excel/7. DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/7. DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UFNEW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-New\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="5820" tabRatio="769" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="5820" tabRatio="769"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -34,6 +34,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="18" hidden="1">Master!$A$1:$B$43</definedName>
@@ -14193,10 +14194,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -14206,6 +14203,17 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -14238,17 +14246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -14260,6 +14257,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -21064,6 +21065,19 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -22395,7 +22409,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -22485,7 +22499,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="topRight" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22501,101 +22515,38 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>3221</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3221</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>3221</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="17" t="s">
         <v>3221</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -22804,7 +22755,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="topRight" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22820,7 +22771,7 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -22833,77 +22784,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="96"/>
-    </row>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="96"/>
-    </row>
-    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="96"/>
-    </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="96"/>
-    </row>
-    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="96"/>
-    </row>
-    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="96"/>
-    </row>
-    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="96"/>
-    </row>
-    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="96"/>
-    </row>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="96"/>
-    </row>
-    <row r="11" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="105" t="s">
         <v>3163</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="107"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
@@ -22913,14 +22810,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119" t="s">
+    <row r="13" spans="1:5" s="109" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="124"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="108"/>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
@@ -22969,14 +22866,14 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="119" t="s">
+    <row r="21" spans="1:5" s="109" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="108"/>
     </row>
     <row r="22" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
@@ -23031,14 +22928,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="121" t="s">
+    <row r="29" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="105" t="s">
         <v>3164</v>
       </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="123"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="107"/>
     </row>
     <row r="30" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
@@ -23064,14 +22961,14 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="126" t="s">
+    <row r="33" spans="1:5" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="110" t="s">
         <v>3165</v>
       </c>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="112"/>
     </row>
     <row r="34" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
@@ -23081,14 +22978,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="119" t="s">
+    <row r="35" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
@@ -23157,14 +23054,14 @@
       <c r="D43" s="92"/>
       <c r="E43" s="92"/>
     </row>
-    <row r="44" spans="1:5" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="108" t="s">
+    <row r="44" spans="1:5" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="115" t="s">
         <v>3351</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
     </row>
     <row r="45" spans="1:5" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="76" t="s">
@@ -23198,14 +23095,14 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="110" t="s">
+    <row r="49" spans="1:5" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="B49" s="111"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
     </row>
     <row r="50" spans="1:5" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="76" t="s">
@@ -23271,8 +23168,8 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="112" t="s">
+    <row r="58" spans="1:5" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="119" t="s">
         <v>3337</v>
       </c>
     </row>
@@ -23434,11 +23331,11 @@
       </c>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:2" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="113" t="s">
+    <row r="80" spans="1:2" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="120" t="s">
         <v>3166</v>
       </c>
-      <c r="B80" s="114"/>
+      <c r="B80" s="121"/>
     </row>
     <row r="81" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
@@ -23457,10 +23354,10 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="115" t="s">
+      <c r="A84" s="122" t="s">
         <v>3346</v>
       </c>
-      <c r="B84" s="116"/>
+      <c r="B84" s="123"/>
     </row>
     <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="82" t="s">
@@ -23472,10 +23369,10 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="117" t="s">
+      <c r="A86" s="124" t="s">
         <v>3345</v>
       </c>
-      <c r="B86" s="118"/>
+      <c r="B86" s="125"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="75" t="s">
@@ -23487,23 +23384,17 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="107" t="s">
+      <c r="A88" s="114" t="s">
         <v>3352</v>
       </c>
-      <c r="B88" s="107"/>
+      <c r="B88" s="114"/>
     </row>
     <row r="89" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="107"/>
-      <c r="B89" s="107"/>
+      <c r="A89" s="114"/>
+      <c r="B89" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A35:XFD35"/>
-    <mergeCell ref="A11:XFD11"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A33:XFD33"/>
     <mergeCell ref="A88:B89"/>
     <mergeCell ref="A44:XFD44"/>
     <mergeCell ref="A49:XFD49"/>
@@ -23511,6 +23402,12 @@
     <mergeCell ref="A80:XFD80"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A35:XFD35"/>
+    <mergeCell ref="A11:XFD11"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A33:XFD33"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:XFD28">
     <cfRule type="expression" dxfId="91" priority="8">
@@ -23648,8 +23545,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+    <row r="2" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
         <v>3167</v>
       </c>
     </row>
@@ -23705,8 +23602,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="99" t="s">
         <v>3168</v>
       </c>
     </row>
@@ -23754,8 +23651,8 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
+    <row r="13" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="99" t="s">
         <v>3169</v>
       </c>
     </row>
@@ -23868,7 +23765,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+      <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23883,7 +23780,7 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -23896,77 +23793,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="96"/>
-    </row>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="96"/>
-    </row>
-    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="96"/>
-    </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="96"/>
-    </row>
-    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="96"/>
-    </row>
-    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="96"/>
-    </row>
-    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="96"/>
-    </row>
-    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="96"/>
-    </row>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="96"/>
-    </row>
-    <row r="11" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="105" t="s">
         <v>3170</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="107"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
@@ -24018,14 +23861,14 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="121" t="s">
+    <row r="19" spans="1:5" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="105" t="s">
         <v>3171</v>
       </c>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
     </row>
     <row r="20" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
@@ -24203,14 +24046,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="121" t="s">
+    <row r="42" spans="1:5" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="105" t="s">
         <v>3172</v>
       </c>
-      <c r="B42" s="122"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
     </row>
     <row r="43" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
@@ -24458,7 +24301,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24473,7 +24316,7 @@
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -24488,53 +24331,44 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="16"/>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="16"/>
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="16"/>
       <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="16"/>
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
       <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
       <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="16"/>
       <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="16"/>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
+    <row r="11" spans="1:5" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="133"/>
       <c r="B11" s="87"/>
-      <c r="C11" s="98"/>
+      <c r="C11" s="133"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -24595,10 +24429,10 @@
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" s="24" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="126" t="s">
         <v>2575</v>
       </c>
-      <c r="B20" s="130"/>
+      <c r="B20" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24741,7 +24575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="topRight" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24755,7 +24589,7 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -24768,34 +24602,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -24806,14 +24622,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+    <row r="13" spans="1:5" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>2564</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="131"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="127"/>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -24909,14 +24725,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="113" t="s">
+    <row r="26" spans="1:5" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="120" t="s">
         <v>2568</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="131"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="127"/>
     </row>
     <row r="27" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -25034,11 +24850,11 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="113" t="s">
+    <row r="42" spans="1:2" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="120" t="s">
         <v>2552</v>
       </c>
-      <c r="B42" s="114"/>
+      <c r="B42" s="121"/>
     </row>
     <row r="43" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
@@ -25119,10 +24935,10 @@
       <c r="B54" s="18"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="133" t="s">
+      <c r="A55" s="129" t="s">
         <v>2556</v>
       </c>
-      <c r="B55" s="134"/>
+      <c r="B55" s="130"/>
     </row>
     <row r="56" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
@@ -25191,7 +25007,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="topRight" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25205,7 +25021,7 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -25218,34 +25034,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" s="132" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
     </row>
     <row r="12" spans="1:5" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25307,9 +25105,9 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="topRight" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25323,7 +25121,7 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -25336,34 +25134,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -35947,7 +35727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35963,7 +35743,7 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -35979,34 +35759,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -36045,8 +35807,8 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="103" t="s">
+    <row r="15" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="99" t="s">
         <v>3147</v>
       </c>
     </row>
@@ -36132,8 +35894,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="103" t="s">
+    <row r="23" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="99" t="s">
         <v>3149</v>
       </c>
     </row>
@@ -36270,7 +36032,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C45" sqref="C45"/>
+      <selection pane="topRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36286,13 +36048,13 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -36323,17 +36085,17 @@
         <v>0002APP20211200079</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100" t="s">
+    <row r="13" spans="1:4" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="96" t="s">
         <v>2520</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="97" t="s">
         <v>2522</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="97" t="s">
         <v>2522</v>
       </c>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="97" t="s">
         <v>2522</v>
       </c>
     </row>
@@ -36351,8 +36113,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+    <row r="15" spans="1:4" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="100" t="s">
         <v>3385</v>
       </c>
     </row>
@@ -36625,8 +36387,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="104" t="s">
+    <row r="43" spans="1:5" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="100" t="s">
         <v>3382</v>
       </c>
     </row>
@@ -36669,8 +36431,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="104" t="s">
+    <row r="48" spans="1:5" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="100" t="s">
         <v>3381</v>
       </c>
     </row>
@@ -36800,8 +36562,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="104" t="s">
+    <row r="61" spans="1:4" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="100" t="s">
         <v>3377</v>
       </c>
     </row>
@@ -36882,8 +36644,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="104" t="s">
+    <row r="69" spans="1:4" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="100" t="s">
         <v>3149</v>
       </c>
     </row>
@@ -37123,7 +36885,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37137,13 +36899,13 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="17" t="s">
@@ -37153,52 +36915,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -37248,8 +36974,8 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="103" t="s">
+    <row r="14" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="99" t="s">
         <v>3151</v>
       </c>
     </row>
@@ -37558,8 +37284,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="103" t="s">
+    <row r="32" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="99" t="s">
         <v>3148</v>
       </c>
     </row>
@@ -37644,8 +37370,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="103" t="s">
+    <row r="37" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="99" t="s">
         <v>3149</v>
       </c>
     </row>
@@ -37939,7 +37665,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <selection pane="topRight" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37954,13 +37680,13 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="17" t="s">
@@ -37970,52 +37696,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -38061,8 +37751,8 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="103" t="s">
+    <row r="14" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="99" t="s">
         <v>3151</v>
       </c>
     </row>
@@ -38190,8 +37880,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="s">
+    <row r="22" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="99" t="s">
         <v>3149</v>
       </c>
     </row>
@@ -38414,9 +38104,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38430,7 +38120,7 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -38443,34 +38133,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -38558,7 +38230,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="topRight" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38575,125 +38247,44 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3221</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>3221</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="17" t="s">
         <v>3221</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="17" t="s">
         <v>3221</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="17" t="s">
         <v>3221</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="17" t="s">
         <v>3221</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
       <c r="D11" s="87"/>
       <c r="E11" s="87"/>
@@ -38852,7 +38443,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:XFD10"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38867,7 +38458,7 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -38880,35 +38471,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="99" t="s">
         <v>3152</v>
       </c>
     </row>
@@ -38938,8 +38511,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
+    <row r="16" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="99" t="s">
         <v>3153</v>
       </c>
     </row>
@@ -39033,8 +38606,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103" t="s">
+    <row r="29" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="99" t="s">
         <v>3154</v>
       </c>
     </row>
@@ -39160,8 +38733,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="103" t="s">
+    <row r="49" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="99" t="s">
         <v>3155</v>
       </c>
     </row>
@@ -39203,8 +38776,8 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="103" t="s">
+    <row r="55" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="99" t="s">
         <v>3156</v>
       </c>
     </row>
@@ -39390,7 +38963,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:XFD10"/>
+      <selection pane="topRight" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39404,7 +38977,7 @@
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -39417,77 +38990,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="99"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="101" t="s">
         <v>3157</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
@@ -39519,14 +39038,14 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="105" t="s">
+    <row r="16" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="101" t="s">
         <v>3158</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
@@ -39660,11 +39179,11 @@
       </c>
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="105" t="s">
+    <row r="34" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="101" t="s">
         <v>3159</v>
       </c>
-      <c r="B34" s="106"/>
+      <c r="B34" s="102"/>
     </row>
     <row r="35" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
@@ -39674,11 +39193,11 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="105" t="s">
+    <row r="36" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="101" t="s">
         <v>3160</v>
       </c>
-      <c r="B36" s="106"/>
+      <c r="B36" s="102"/>
     </row>
     <row r="37" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -39704,11 +39223,11 @@
         <v>387</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="105" t="s">
+    <row r="40" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="101" t="s">
         <v>3161</v>
       </c>
-      <c r="B40" s="106"/>
+      <c r="B40" s="102"/>
     </row>
     <row r="41" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -39860,11 +39379,11 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="105" t="s">
+    <row r="60" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="101" t="s">
         <v>3162</v>
       </c>
-      <c r="B60" s="106"/>
+      <c r="B60" s="102"/>
     </row>
     <row r="61" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
@@ -39938,11 +39457,11 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="105" t="s">
+    <row r="70" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="101" t="s">
         <v>3249</v>
       </c>
-      <c r="B70" s="106"/>
+      <c r="B70" s="102"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="68" t="s">

--- a/Excel/7. DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/7. DataFile_NAP_CF4W_Company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="5820" tabRatio="769"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="5820" tabRatio="769" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -3031,7 +3031,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="3502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="3504">
   <si>
     <t>Count</t>
   </si>
@@ -13544,6 +13544,12 @@
   </si>
   <si>
     <t>STEVEN;FT TEST COMPANY</t>
+  </si>
+  <si>
+    <t>Reason Failed</t>
+  </si>
+  <si>
+    <t>Objective</t>
   </si>
 </sst>
 </file>
@@ -14197,23 +14203,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -14246,6 +14245,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -14257,10 +14267,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -22409,7 +22415,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -22499,7 +22505,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD10"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22537,8 +22543,16 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -22546,7 +22560,7 @@
     <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" s="131" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -22755,7 +22769,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" sqref="A1:XFD10"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22784,8 +22798,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -22793,14 +22815,14 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+    <row r="11" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="121" t="s">
         <v>3163</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="107"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="123"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
@@ -22810,14 +22832,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
+    <row r="13" spans="1:5" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="108"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="124"/>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
@@ -22866,14 +22888,14 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="103" t="s">
+    <row r="21" spans="1:5" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="108"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="124"/>
     </row>
     <row r="22" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
@@ -22928,14 +22950,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="105" t="s">
+    <row r="29" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="121" t="s">
         <v>3164</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="107"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="123"/>
     </row>
     <row r="30" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
@@ -22961,14 +22983,14 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="110" t="s">
+    <row r="33" spans="1:5" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="126" t="s">
         <v>3165</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="112"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
     </row>
     <row r="34" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
@@ -22978,14 +23000,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="103" t="s">
+    <row r="35" spans="1:5" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="119" t="s">
         <v>213</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
@@ -23054,14 +23076,14 @@
       <c r="D43" s="92"/>
       <c r="E43" s="92"/>
     </row>
-    <row r="44" spans="1:5" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="115" t="s">
+    <row r="44" spans="1:5" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="108" t="s">
         <v>3351</v>
       </c>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
     </row>
     <row r="45" spans="1:5" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="76" t="s">
@@ -23095,14 +23117,14 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="117" t="s">
+    <row r="49" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="110" t="s">
         <v>213</v>
       </c>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="1:5" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="76" t="s">
@@ -23168,8 +23190,8 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="119" t="s">
+    <row r="58" spans="1:5" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="112" t="s">
         <v>3337</v>
       </c>
     </row>
@@ -23331,11 +23353,11 @@
       </c>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:2" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="120" t="s">
+    <row r="80" spans="1:2" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="113" t="s">
         <v>3166</v>
       </c>
-      <c r="B80" s="121"/>
+      <c r="B80" s="114"/>
     </row>
     <row r="81" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
@@ -23354,10 +23376,10 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="122" t="s">
+      <c r="A84" s="115" t="s">
         <v>3346</v>
       </c>
-      <c r="B84" s="123"/>
+      <c r="B84" s="116"/>
     </row>
     <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="82" t="s">
@@ -23369,10 +23391,10 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="124" t="s">
+      <c r="A86" s="117" t="s">
         <v>3345</v>
       </c>
-      <c r="B86" s="125"/>
+      <c r="B86" s="118"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="75" t="s">
@@ -23384,17 +23406,23 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="114" t="s">
+      <c r="A88" s="107" t="s">
         <v>3352</v>
       </c>
-      <c r="B88" s="114"/>
+      <c r="B88" s="107"/>
     </row>
     <row r="89" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="114"/>
-      <c r="B89" s="114"/>
+      <c r="A89" s="107"/>
+      <c r="B89" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A35:XFD35"/>
+    <mergeCell ref="A11:XFD11"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A33:XFD33"/>
     <mergeCell ref="A88:B89"/>
     <mergeCell ref="A44:XFD44"/>
     <mergeCell ref="A49:XFD49"/>
@@ -23402,12 +23430,6 @@
     <mergeCell ref="A80:XFD80"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A35:XFD35"/>
-    <mergeCell ref="A11:XFD11"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A33:XFD33"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:XFD28">
     <cfRule type="expression" dxfId="91" priority="8">
@@ -23545,8 +23567,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+    <row r="2" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
         <v>3167</v>
       </c>
     </row>
@@ -23602,8 +23624,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="s">
+    <row r="8" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>3168</v>
       </c>
     </row>
@@ -23651,8 +23673,8 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
+    <row r="13" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="102" t="s">
         <v>3169</v>
       </c>
     </row>
@@ -23765,7 +23787,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD10"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23793,8 +23815,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -23802,14 +23832,14 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+    <row r="11" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="121" t="s">
         <v>3170</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="107"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="123"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
@@ -23861,14 +23891,14 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="105" t="s">
+    <row r="19" spans="1:5" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="121" t="s">
         <v>3171</v>
       </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
     </row>
     <row r="20" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
@@ -24046,14 +24076,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="105" t="s">
+    <row r="42" spans="1:5" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="121" t="s">
         <v>3172</v>
       </c>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
     </row>
     <row r="43" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
@@ -24301,7 +24331,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD10"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24330,11 +24360,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -24365,10 +24399,10 @@
       <c r="A10" s="13"/>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:5" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
+    <row r="11" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="101"/>
       <c r="B11" s="87"/>
-      <c r="C11" s="133"/>
+      <c r="C11" s="101"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -24429,10 +24463,10 @@
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" s="24" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="130" t="s">
         <v>2575</v>
       </c>
-      <c r="B20" s="126"/>
+      <c r="B20" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24457,7 +24491,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24486,8 +24520,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -24575,7 +24617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD10"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24602,8 +24644,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -24611,7 +24661,7 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="131" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -24622,14 +24672,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+    <row r="13" spans="1:5" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="113" t="s">
         <v>2564</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="127"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="131"/>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -24725,14 +24775,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="120" t="s">
+    <row r="26" spans="1:5" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="113" t="s">
         <v>2568</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="127"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="131"/>
     </row>
     <row r="27" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -24850,11 +24900,11 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="120" t="s">
+    <row r="42" spans="1:2" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="113" t="s">
         <v>2552</v>
       </c>
-      <c r="B42" s="121"/>
+      <c r="B42" s="114"/>
     </row>
     <row r="43" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
@@ -24935,10 +24985,10 @@
       <c r="B54" s="18"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="129" t="s">
+      <c r="A55" s="133" t="s">
         <v>2556</v>
       </c>
-      <c r="B55" s="130"/>
+      <c r="B55" s="134"/>
     </row>
     <row r="56" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
@@ -25007,7 +25057,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD10"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25034,8 +25084,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -25043,7 +25101,7 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="132" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
     </row>
     <row r="12" spans="1:5" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25107,12 +25165,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD10"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -25134,8 +25192,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -25143,7 +25209,7 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="131" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -25226,9 +25292,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:DS492"/>
   <sheetViews>
-    <sheetView topLeftCell="DP1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DP1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DS1" sqref="DS1:DS5"/>
+      <selection pane="bottomLeft" activeCell="DS9" sqref="DS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35727,7 +35793,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD10"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35759,8 +35825,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -35768,7 +35842,7 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="131" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -35807,8 +35881,8 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
+    <row r="15" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="102" t="s">
         <v>3147</v>
       </c>
     </row>
@@ -35894,8 +35968,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99" t="s">
+    <row r="23" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="102" t="s">
         <v>3149</v>
       </c>
     </row>
@@ -36032,7 +36106,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36058,8 +36132,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -36113,8 +36195,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="100" t="s">
+    <row r="15" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="103" t="s">
         <v>3385</v>
       </c>
     </row>
@@ -36387,8 +36469,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="100" t="s">
+    <row r="43" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="103" t="s">
         <v>3382</v>
       </c>
     </row>
@@ -36431,8 +36513,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="100" t="s">
+    <row r="48" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="103" t="s">
         <v>3381</v>
       </c>
     </row>
@@ -36562,8 +36644,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="100" t="s">
+    <row r="61" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="103" t="s">
         <v>3377</v>
       </c>
     </row>
@@ -36644,8 +36726,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="100" t="s">
+    <row r="69" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="103" t="s">
         <v>3149</v>
       </c>
     </row>
@@ -36885,7 +36967,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD10"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36915,8 +36997,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -36924,7 +37014,7 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="131" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -36974,8 +37064,8 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+    <row r="14" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
         <v>3151</v>
       </c>
     </row>
@@ -37284,8 +37374,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="99" t="s">
+    <row r="32" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="102" t="s">
         <v>3148</v>
       </c>
     </row>
@@ -37370,8 +37460,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="99" t="s">
+    <row r="37" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="102" t="s">
         <v>3149</v>
       </c>
     </row>
@@ -37665,7 +37755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD10"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37696,8 +37786,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -37705,7 +37803,7 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="131" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -37751,8 +37849,8 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+    <row r="14" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
         <v>3151</v>
       </c>
     </row>
@@ -37880,8 +37978,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
+    <row r="22" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="102" t="s">
         <v>3149</v>
       </c>
     </row>
@@ -38106,7 +38204,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD10"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38133,8 +38231,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -38142,7 +38248,7 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="131" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -38230,7 +38336,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD10"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38275,8 +38381,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -38284,7 +38398,7 @@
     <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" s="131" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
       <c r="D11" s="87"/>
       <c r="E11" s="87"/>
@@ -38443,7 +38557,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38471,8 +38585,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -38480,8 +38602,8 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+    <row r="11" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="102" t="s">
         <v>3152</v>
       </c>
     </row>
@@ -38511,8 +38633,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
+    <row r="16" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
         <v>3153</v>
       </c>
     </row>
@@ -38606,8 +38728,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99" t="s">
+    <row r="29" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="102" t="s">
         <v>3154</v>
       </c>
     </row>
@@ -38733,8 +38855,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="99" t="s">
+    <row r="49" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="102" t="s">
         <v>3155</v>
       </c>
     </row>
@@ -38776,8 +38898,8 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="99" t="s">
+    <row r="55" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="102" t="s">
         <v>3156</v>
       </c>
     </row>
@@ -38963,7 +39085,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection pane="topRight" sqref="A1:XFD10"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38990,8 +39112,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3503</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -38999,14 +39129,14 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="101" t="s">
+    <row r="11" spans="1:5" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="104" t="s">
         <v>3157</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
@@ -39038,14 +39168,14 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="101" t="s">
+    <row r="16" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="104" t="s">
         <v>3158</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
@@ -39179,11 +39309,11 @@
       </c>
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="101" t="s">
+    <row r="34" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="104" t="s">
         <v>3159</v>
       </c>
-      <c r="B34" s="102"/>
+      <c r="B34" s="105"/>
     </row>
     <row r="35" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
@@ -39193,11 +39323,11 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="101" t="s">
+    <row r="36" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="104" t="s">
         <v>3160</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="105"/>
     </row>
     <row r="37" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -39223,11 +39353,11 @@
         <v>387</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="101" t="s">
+    <row r="40" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="104" t="s">
         <v>3161</v>
       </c>
-      <c r="B40" s="102"/>
+      <c r="B40" s="105"/>
     </row>
     <row r="41" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -39379,11 +39509,11 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="101" t="s">
+    <row r="60" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="104" t="s">
         <v>3162</v>
       </c>
-      <c r="B60" s="102"/>
+      <c r="B60" s="105"/>
     </row>
     <row r="61" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
@@ -39457,11 +39587,11 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="101" t="s">
+    <row r="70" spans="1:8" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="104" t="s">
         <v>3249</v>
       </c>
-      <c r="B70" s="102"/>
+      <c r="B70" s="105"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="68" t="s">

--- a/Excel/7. DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/7. DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-New\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UFNEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="5820" tabRatio="769" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="5820" tabRatio="769" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId20"/>
-    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="18" hidden="1">Master!$A$1:$B$43</definedName>
@@ -14213,6 +14212,17 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -14245,17 +14255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -21071,19 +21070,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Master"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -22816,13 +22802,13 @@
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="109" t="s">
         <v>3163</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
@@ -22832,14 +22818,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119" t="s">
+    <row r="13" spans="1:5" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="124"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="112"/>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
@@ -22888,14 +22874,14 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="119" t="s">
+    <row r="21" spans="1:5" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="112"/>
     </row>
     <row r="22" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
@@ -22951,13 +22937,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="109" t="s">
         <v>3164</v>
       </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="123"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="111"/>
     </row>
     <row r="30" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
@@ -22983,14 +22969,14 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="126" t="s">
+    <row r="33" spans="1:5" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="114" t="s">
         <v>3165</v>
       </c>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="116"/>
     </row>
     <row r="34" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
@@ -23000,14 +22986,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="119" t="s">
+    <row r="35" spans="1:5" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
@@ -23076,14 +23062,14 @@
       <c r="D43" s="92"/>
       <c r="E43" s="92"/>
     </row>
-    <row r="44" spans="1:5" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="108" t="s">
+    <row r="44" spans="1:5" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="119" t="s">
         <v>3351</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
     </row>
     <row r="45" spans="1:5" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="76" t="s">
@@ -23117,14 +23103,14 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="110" t="s">
+    <row r="49" spans="1:5" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="121" t="s">
         <v>213</v>
       </c>
-      <c r="B49" s="111"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
     </row>
     <row r="50" spans="1:5" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="76" t="s">
@@ -23190,8 +23176,8 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="112" t="s">
+    <row r="58" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="123" t="s">
         <v>3337</v>
       </c>
     </row>
@@ -23353,11 +23339,11 @@
       </c>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:2" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="113" t="s">
+    <row r="80" spans="1:2" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="124" t="s">
         <v>3166</v>
       </c>
-      <c r="B80" s="114"/>
+      <c r="B80" s="125"/>
     </row>
     <row r="81" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
@@ -23376,10 +23362,10 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="115" t="s">
+      <c r="A84" s="126" t="s">
         <v>3346</v>
       </c>
-      <c r="B84" s="116"/>
+      <c r="B84" s="127"/>
     </row>
     <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="82" t="s">
@@ -23391,10 +23377,10 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="117" t="s">
+      <c r="A86" s="128" t="s">
         <v>3345</v>
       </c>
-      <c r="B86" s="118"/>
+      <c r="B86" s="129"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="75" t="s">
@@ -23406,23 +23392,17 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="107" t="s">
+      <c r="A88" s="118" t="s">
         <v>3352</v>
       </c>
-      <c r="B88" s="107"/>
+      <c r="B88" s="118"/>
     </row>
     <row r="89" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="107"/>
-      <c r="B89" s="107"/>
+      <c r="A89" s="118"/>
+      <c r="B89" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A35:XFD35"/>
-    <mergeCell ref="A11:XFD11"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A33:XFD33"/>
     <mergeCell ref="A88:B89"/>
     <mergeCell ref="A44:XFD44"/>
     <mergeCell ref="A49:XFD49"/>
@@ -23430,6 +23410,12 @@
     <mergeCell ref="A80:XFD80"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A35:XFD35"/>
+    <mergeCell ref="A11:XFD11"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A33:XFD33"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:XFD28">
     <cfRule type="expression" dxfId="91" priority="8">
@@ -23833,13 +23819,13 @@
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="109" t="s">
         <v>3170</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
@@ -23891,14 +23877,14 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="121" t="s">
+    <row r="19" spans="1:5" s="109" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="109" t="s">
         <v>3171</v>
       </c>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
     </row>
     <row r="20" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
@@ -24076,14 +24062,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="121" t="s">
+    <row r="42" spans="1:5" s="109" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="109" t="s">
         <v>3172</v>
       </c>
-      <c r="B42" s="122"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
     </row>
     <row r="43" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
@@ -24615,7 +24601,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
@@ -24673,12 +24659,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="124" t="s">
         <v>2564</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
       <c r="E13" s="131"/>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -24776,12 +24762,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="124" t="s">
         <v>2568</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
       <c r="E26" s="131"/>
     </row>
     <row r="27" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -24901,10 +24887,10 @@
       </c>
     </row>
     <row r="42" spans="1:2" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="113" t="s">
+      <c r="A42" s="124" t="s">
         <v>2552</v>
       </c>
-      <c r="B42" s="114"/>
+      <c r="B42" s="125"/>
     </row>
     <row r="43" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
@@ -25292,7 +25278,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:DS492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DP1" workbookViewId="0">
+    <sheetView topLeftCell="DP1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="DS9" sqref="DS9"/>
     </sheetView>
